--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS6.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS6.xlsx
@@ -19,7 +19,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="147">
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
   <si>
     <t>Signal_Value_78</t>
   </si>
@@ -147,6 +372,18 @@
     <t>Signal_Value_119</t>
   </si>
   <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -219,10 +456,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -583,15 +817,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:DR6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:122">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -719,10 +953,247 @@
       <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:122">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -731,106 +1202,106 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1207839054759663</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.01047630253450347</v>
+        <v>0.2679692686200946</v>
       </c>
       <c r="G2">
-        <v>0.006068179433693017</v>
+        <v>0.02719923567095119</v>
       </c>
       <c r="H2">
-        <v>0.0203113710468972</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.007371800317542395</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03554883863533358</v>
+        <v>0.03151604585612346</v>
       </c>
       <c r="K2">
-        <v>1.044955555015247E-05</v>
+        <v>0.03900603814000226</v>
       </c>
       <c r="L2">
-        <v>0.01020685690932129</v>
+        <v>0.1935604958387624</v>
       </c>
       <c r="M2">
-        <v>0.0009094889821565401</v>
+        <v>0.01280762927065995</v>
       </c>
       <c r="N2">
-        <v>0.0001911662171414125</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.06409242179383788</v>
+        <v>0.01583820415743556</v>
       </c>
       <c r="P2">
-        <v>0.07436122798095485</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0005374525538109974</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1008374990589856</v>
+        <v>0.04932776304250786</v>
       </c>
       <c r="S2">
-        <v>0.1061981703752534</v>
+        <v>0.03186883647281588</v>
       </c>
       <c r="T2">
-        <v>0.05944303551153008</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.01349371407124945</v>
+        <v>0.05187456749483868</v>
       </c>
       <c r="V2">
-        <v>0.007631279254392951</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.06872776170163727</v>
+        <v>0.1427241893870449</v>
       </c>
       <c r="X2">
-        <v>0.08136617942483694</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.05446823444701913</v>
+        <v>0.0133430861771197</v>
       </c>
       <c r="Z2">
-        <v>0.03635252970606802</v>
+        <v>0.0006516968854829903</v>
       </c>
       <c r="AA2">
-        <v>0.02825833758344337</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.002229255222076619</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.02237512376501644</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0588589826799891</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.04542781884633806</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.03066884546657709</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.02670717094350624</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.01516487417490446</v>
+        <v>0.001529037510194378</v>
       </c>
       <c r="AI2">
-        <v>0.007540969988396731</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.004096380647005685</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>6.828117103088368E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -850,10 +1321,247 @@
       <c r="AQ2">
         <v>0</v>
       </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:122">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -868,100 +1576,100 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.01185168908356812</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.02641194777466287</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01580439420818642</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02658790224923622</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04820975935431117</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001959893315999528</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.01651750089763415</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001189329526128665</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.007163247120309729</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1008811383391073</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.05002025090790933</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01937980915991978</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1166630422114642</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.08515571385555597</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.03341885095545651</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002936749126212588</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.01529755706905275</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.06541542613399236</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.06390826403645035</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.04625893274395292</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.03384565233141709</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.01823306985210251</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.39127512362306E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.02550158608555468</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.05623391786352382</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03959342006213213</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.02784856990753189</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0240128989512953</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.01229595763320343</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.005232555778304443</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002155863631611</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.171855908934519E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -981,10 +1689,247 @@
       <c r="AQ3">
         <v>0</v>
       </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0.1140137719192763</v>
+      </c>
+      <c r="CM3">
+        <v>0.05207258029248958</v>
+      </c>
+      <c r="CN3">
+        <v>0.08134758929767014</v>
+      </c>
+      <c r="CO3">
+        <v>0.00830092326952634</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0.008311712875666115</v>
+      </c>
+      <c r="CR3">
+        <v>0.03805329351543361</v>
+      </c>
+      <c r="CS3">
+        <v>0.06670127443570024</v>
+      </c>
+      <c r="CT3">
+        <v>0.04805697330231372</v>
+      </c>
+      <c r="CU3">
+        <v>0.006840628502771636</v>
+      </c>
+      <c r="CV3">
+        <v>0.07546803616065792</v>
+      </c>
+      <c r="CW3">
+        <v>0.0333605048697009</v>
+      </c>
+      <c r="CX3">
+        <v>0.0003453751336521761</v>
+      </c>
+      <c r="CY3">
+        <v>0.01797443975288089</v>
+      </c>
+      <c r="CZ3">
+        <v>0.05791292807586915</v>
+      </c>
+      <c r="DA3">
+        <v>0.02445486238200979</v>
+      </c>
+      <c r="DB3">
+        <v>0.04753226414100901</v>
+      </c>
+      <c r="DC3">
+        <v>0.0233958650473406</v>
+      </c>
+      <c r="DD3">
+        <v>0.1295567831702858</v>
+      </c>
+      <c r="DE3">
+        <v>0.06691792603962309</v>
+      </c>
+      <c r="DF3">
+        <v>0.0005860239386842114</v>
+      </c>
+      <c r="DG3">
+        <v>0.04573762416634126</v>
+      </c>
+      <c r="DH3">
+        <v>0.004366931739589068</v>
+      </c>
+      <c r="DI3">
+        <v>0.0002369976543712367</v>
+      </c>
+      <c r="DJ3">
+        <v>0.001527235810623151</v>
+      </c>
+      <c r="DK3">
+        <v>0.008783335656436856</v>
+      </c>
+      <c r="DL3">
+        <v>0.001133432321917997</v>
+      </c>
+      <c r="DM3">
+        <v>0.00237317937817195</v>
+      </c>
+      <c r="DN3">
+        <v>0.005179808383984565</v>
+      </c>
+      <c r="DO3">
+        <v>0.01064125459019399</v>
+      </c>
+      <c r="DP3">
+        <v>0.01029323468507613</v>
+      </c>
+      <c r="DQ3">
+        <v>0.008523209490732681</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:122">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -999,97 +1944,97 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0225182123943591</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.025478126746202</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0285354339402457</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02961025112174306</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05731351823171417</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.230058697697832E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01584974920767086</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0006428034804250041</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.002414028365134626</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.07975198568233641</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.07475780032034728</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.004966912280829341</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.1091899814127752</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0969576594305738</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.02659165023299365</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001891213838752826</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.005456296978285127</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0408064411333419</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.06158855716344116</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.06041831658958135</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.04113043384964071</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0186245160979822</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.000412679882784668</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01531783283146652</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.05286608244407898</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.04751280136745512</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.03097720847638932</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.02438081334654138</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01536277349063079</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.006961226279561943</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.001692392795738913</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1112,10 +2057,247 @@
       <c r="AQ4">
         <v>0</v>
       </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0.02694741265345391</v>
+      </c>
+      <c r="CK4">
+        <v>0.005055758592174542</v>
+      </c>
+      <c r="CL4">
+        <v>0.03440816226365513</v>
+      </c>
+      <c r="CM4">
+        <v>0.0112515478776791</v>
+      </c>
+      <c r="CN4">
+        <v>0.002203981842934888</v>
+      </c>
+      <c r="CO4">
+        <v>0.131297247922823</v>
+      </c>
+      <c r="CP4">
+        <v>0.03799167841138316</v>
+      </c>
+      <c r="CQ4">
+        <v>0.2443558778148733</v>
+      </c>
+      <c r="CR4">
+        <v>0.006276940756157013</v>
+      </c>
+      <c r="CS4">
+        <v>0.02563574545859722</v>
+      </c>
+      <c r="CT4">
+        <v>0.04869178554400257</v>
+      </c>
+      <c r="CU4">
+        <v>0.01336299692232492</v>
+      </c>
+      <c r="CV4">
+        <v>0.1095155171937812</v>
+      </c>
+      <c r="CW4">
+        <v>0.02421851205852609</v>
+      </c>
+      <c r="CX4">
+        <v>0.0231562520135992</v>
+      </c>
+      <c r="CY4">
+        <v>0.007564390680991637</v>
+      </c>
+      <c r="CZ4">
+        <v>0.05769073063575052</v>
+      </c>
+      <c r="DA4">
+        <v>0.01282367171926134</v>
+      </c>
+      <c r="DB4">
+        <v>0.05176399839407927</v>
+      </c>
+      <c r="DC4">
+        <v>0.01215586433508371</v>
+      </c>
+      <c r="DD4">
+        <v>0.003588979119500669</v>
+      </c>
+      <c r="DE4">
+        <v>0.03919627306365562</v>
+      </c>
+      <c r="DF4">
+        <v>0.002314762628752093</v>
+      </c>
+      <c r="DG4">
+        <v>0.008713520043313477</v>
+      </c>
+      <c r="DH4">
+        <v>0.01821165677495115</v>
+      </c>
+      <c r="DI4">
+        <v>0.00434517928736297</v>
+      </c>
+      <c r="DJ4">
+        <v>0.01483744343390129</v>
+      </c>
+      <c r="DK4">
+        <v>3.351226666372929E-05</v>
+      </c>
+      <c r="DL4">
+        <v>0.004558787498443222</v>
+      </c>
+      <c r="DM4">
+        <v>0.01379810675381985</v>
+      </c>
+      <c r="DN4">
+        <v>0.003804474198661969</v>
+      </c>
+      <c r="DO4">
+        <v>0.0002292318398420952</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:122">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1148,105 +2330,342 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.002003644192470601</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.006525821253575245</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.004503550739093905</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05432975608020185</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.01108201976558543</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.06001501659259244</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0551982773469668</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.005585316982666286</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.02011821242021003</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>7.619795436603285E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0248085398164877</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.1125690674888399</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.02981182715871619</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.04334418340725363</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.1234409037704724</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.06342785898740531</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.009396273441650586</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0005590661063807422</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.02061615582136072</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.05400103796012137</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.05896367070323</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.03993240459606109</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.02152338706150187</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.009117209402759426</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0003868237496452364</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.02791194457117474</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.05271300839320171</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.03348620495203639</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.02453094821691682</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0181279121862617</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.008465497142397605</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.003428261738396051</v>
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0.07738279086047072</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0.1450887108534939</v>
+      </c>
+      <c r="CO5">
+        <v>0.02495657262013277</v>
+      </c>
+      <c r="CP5">
+        <v>0.0007997377383497338</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0.08034473092607131</v>
+      </c>
+      <c r="CS5">
+        <v>0.05737855448367574</v>
+      </c>
+      <c r="CT5">
+        <v>0.01110516514868039</v>
+      </c>
+      <c r="CU5">
+        <v>0.01871632977897051</v>
+      </c>
+      <c r="CV5">
+        <v>0.0001423819032195687</v>
+      </c>
+      <c r="CW5">
+        <v>0.0238344778037166</v>
+      </c>
+      <c r="CX5">
+        <v>0.04121894456620576</v>
+      </c>
+      <c r="CY5">
+        <v>0.000447259054931066</v>
+      </c>
+      <c r="CZ5">
+        <v>0.005125304884060417</v>
+      </c>
+      <c r="DA5">
+        <v>0.1386887331200964</v>
+      </c>
+      <c r="DB5">
+        <v>0.08341616624391525</v>
+      </c>
+      <c r="DC5">
+        <v>0.0133021340323304</v>
+      </c>
+      <c r="DD5">
+        <v>0.05589139979473275</v>
+      </c>
+      <c r="DE5">
+        <v>0.07404379027101057</v>
+      </c>
+      <c r="DF5">
+        <v>0.003940908726065856</v>
+      </c>
+      <c r="DG5">
+        <v>0.04350067568117477</v>
+      </c>
+      <c r="DH5">
+        <v>0.0133279621237487</v>
+      </c>
+      <c r="DI5">
+        <v>0.003506400208338195</v>
+      </c>
+      <c r="DJ5">
+        <v>0.01177725765977704</v>
+      </c>
+      <c r="DK5">
+        <v>0.00029833468799452</v>
+      </c>
+      <c r="DL5">
+        <v>0.009992086009595003</v>
+      </c>
+      <c r="DM5">
+        <v>0.00997328253143407</v>
+      </c>
+      <c r="DN5">
+        <v>0.001973005998204597</v>
+      </c>
+      <c r="DO5">
+        <v>0.02865007463243404</v>
+      </c>
+      <c r="DP5">
+        <v>0.0203208038852885</v>
+      </c>
+      <c r="DQ5">
+        <v>0.0008560237718806484</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:122">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1255,100 +2674,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001046207537985449</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.004759889487862472</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03606547525959385</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.01576612103379008</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.04148455139556097</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01661767450119276</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0688839060187528</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.003727231858669521</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.02516880889272288</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.001169352273556448</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.002042389738859598</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.07128807805327171</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.05216112303690621</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.002787230932030636</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.09110431680795412</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.08092184360812658</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.03229574896602156</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.007726329217935141</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.004105837206884455</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.05165214414317162</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.06840795383765043</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.05803689179195667</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.04046608234146514</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01884778062590673</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001863840428270316</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01155443808495685</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.05156613464773009</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.05426505004009587</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.03454706154124951</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.02697695333307456</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01678085191378238</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.00591270144301267</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1373,6 +2792,243 @@
       </c>
       <c r="AQ6">
         <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0.1158415151944472</v>
+      </c>
+      <c r="CN6">
+        <v>0.07488594484790038</v>
+      </c>
+      <c r="CO6">
+        <v>0.05153356074681682</v>
+      </c>
+      <c r="CP6">
+        <v>0.01288608057408813</v>
+      </c>
+      <c r="CQ6">
+        <v>0.01982095063761305</v>
+      </c>
+      <c r="CR6">
+        <v>0.007971393318900018</v>
+      </c>
+      <c r="CS6">
+        <v>0.09497153137318012</v>
+      </c>
+      <c r="CT6">
+        <v>0.1866859933751792</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0.009114468828241873</v>
+      </c>
+      <c r="CW6">
+        <v>0.007057621842682661</v>
+      </c>
+      <c r="CX6">
+        <v>0.04818704442827201</v>
+      </c>
+      <c r="CY6">
+        <v>0.0029730143766533</v>
+      </c>
+      <c r="CZ6">
+        <v>0.001022415833964691</v>
+      </c>
+      <c r="DA6">
+        <v>0.04310643107359115</v>
+      </c>
+      <c r="DB6">
+        <v>0.03648699496273886</v>
+      </c>
+      <c r="DC6">
+        <v>0.04042278501401152</v>
+      </c>
+      <c r="DD6">
+        <v>0.001569020706010841</v>
+      </c>
+      <c r="DE6">
+        <v>0.1324822297582867</v>
+      </c>
+      <c r="DF6">
+        <v>6.773533547558766E-06</v>
+      </c>
+      <c r="DG6">
+        <v>0.0009919854295932944</v>
+      </c>
+      <c r="DH6">
+        <v>0.05362021533894207</v>
+      </c>
+      <c r="DI6">
+        <v>0.004116814885317952</v>
+      </c>
+      <c r="DJ6">
+        <v>0.002888150217571596</v>
+      </c>
+      <c r="DK6">
+        <v>0.01271074871277176</v>
+      </c>
+      <c r="DL6">
+        <v>0.003266571020011892</v>
+      </c>
+      <c r="DM6">
+        <v>0.009399398239515586</v>
+      </c>
+      <c r="DN6">
+        <v>0.002257725627224427</v>
+      </c>
+      <c r="DO6">
+        <v>0.006545551962571762</v>
+      </c>
+      <c r="DP6">
+        <v>0.008954401710731592</v>
+      </c>
+      <c r="DQ6">
+        <v>0.002788787371315917</v>
+      </c>
+      <c r="DR6">
+        <v>0.005433879058306097</v>
       </c>
     </row>
   </sheetData>
@@ -1382,15 +3038,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:DR6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:122">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1518,10 +3174,247 @@
       <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:122">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1530,522 +3423,1470 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1207839054759663</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1207839054759663</v>
       </c>
       <c r="F2">
-        <v>0.01047630253450347</v>
+        <v>0.3887531740960609</v>
       </c>
       <c r="G2">
-        <v>0.01654448196819649</v>
+        <v>0.4159524097670121</v>
       </c>
       <c r="H2">
-        <v>0.03685585301509368</v>
+        <v>0.4159524097670121</v>
       </c>
       <c r="I2">
-        <v>0.04422765333263608</v>
+        <v>0.4159524097670121</v>
       </c>
       <c r="J2">
-        <v>0.07977649196796965</v>
+        <v>0.4474684556231355</v>
       </c>
       <c r="K2">
-        <v>0.07978694152351981</v>
+        <v>0.4864744937631378</v>
       </c>
       <c r="L2">
-        <v>0.08999379843284111</v>
+        <v>0.6800349896019001</v>
       </c>
       <c r="M2">
-        <v>0.09090328741499765</v>
+        <v>0.69284261887256</v>
       </c>
       <c r="N2">
-        <v>0.09109445363213906</v>
+        <v>0.69284261887256</v>
       </c>
       <c r="O2">
-        <v>0.1551868754259769</v>
+        <v>0.7086808230299956</v>
       </c>
       <c r="P2">
-        <v>0.2295481034069318</v>
+        <v>0.7086808230299956</v>
       </c>
       <c r="Q2">
-        <v>0.2300855559607428</v>
+        <v>0.7086808230299956</v>
       </c>
       <c r="R2">
-        <v>0.3309230550197284</v>
+        <v>0.7580085860725034</v>
       </c>
       <c r="S2">
-        <v>0.4371212253949817</v>
+        <v>0.7898774225453193</v>
       </c>
       <c r="T2">
-        <v>0.4965642609065118</v>
+        <v>0.7898774225453193</v>
       </c>
       <c r="U2">
-        <v>0.5100579749777613</v>
+        <v>0.841751990040158</v>
       </c>
       <c r="V2">
-        <v>0.5176892542321543</v>
+        <v>0.841751990040158</v>
       </c>
       <c r="W2">
-        <v>0.5864170159337916</v>
+        <v>0.9844761794272029</v>
       </c>
       <c r="X2">
-        <v>0.6677831953586285</v>
+        <v>0.9844761794272029</v>
       </c>
       <c r="Y2">
-        <v>0.7222514298056476</v>
+        <v>0.9978192656043225</v>
       </c>
       <c r="Z2">
-        <v>0.7586039595117157</v>
+        <v>0.9984709624898055</v>
       </c>
       <c r="AA2">
-        <v>0.786862297095159</v>
+        <v>0.9984709624898055</v>
       </c>
       <c r="AB2">
-        <v>0.7890915523172356</v>
+        <v>0.9984709624898055</v>
       </c>
       <c r="AC2">
-        <v>0.8114666760822521</v>
+        <v>0.9984709624898055</v>
       </c>
       <c r="AD2">
-        <v>0.8703256587622412</v>
+        <v>0.9984709624898055</v>
       </c>
       <c r="AE2">
-        <v>0.9157534776085793</v>
+        <v>0.9984709624898055</v>
       </c>
       <c r="AF2">
-        <v>0.9464223230751564</v>
+        <v>0.9984709624898055</v>
       </c>
       <c r="AG2">
-        <v>0.9731294940186627</v>
+        <v>0.9984709624898055</v>
       </c>
       <c r="AH2">
-        <v>0.9882943681935671</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>0.9958353381819638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0.9999317188289695</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AU2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AV2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AW2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AX2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AY2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AZ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BA2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BB2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BC2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BD2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BE2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BF2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BG2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BH2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BI2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BU2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BV2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BW2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BX2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BY2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BZ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CA2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CB2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CC2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CD2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CE2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CF2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CG2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CH2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CI2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CJ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CU2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CV2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CW2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CX2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DH2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DI2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DJ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DR2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:122">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0.1140137719192763</v>
+      </c>
+      <c r="CM3">
+        <v>0.1660863522117659</v>
+      </c>
+      <c r="CN3">
+        <v>0.247433941509436</v>
+      </c>
+      <c r="CO3">
+        <v>0.2557348647789623</v>
+      </c>
+      <c r="CP3">
+        <v>0.2557348647789623</v>
+      </c>
+      <c r="CQ3">
+        <v>0.2640465776546285</v>
+      </c>
+      <c r="CR3">
+        <v>0.3020998711700621</v>
+      </c>
+      <c r="CS3">
+        <v>0.3688011456057623</v>
+      </c>
+      <c r="CT3">
+        <v>0.4168581189080761</v>
+      </c>
+      <c r="CU3">
+        <v>0.4236987474108477</v>
+      </c>
+      <c r="CV3">
+        <v>0.4991667835715056</v>
+      </c>
+      <c r="CW3">
+        <v>0.5325272884412064</v>
+      </c>
+      <c r="CX3">
+        <v>0.5328726635748586</v>
+      </c>
+      <c r="CY3">
+        <v>0.5508471033277396</v>
+      </c>
+      <c r="CZ3">
+        <v>0.6087600314036087</v>
+      </c>
+      <c r="DA3">
+        <v>0.6332148937856185</v>
+      </c>
+      <c r="DB3">
+        <v>0.6807471579266274</v>
+      </c>
+      <c r="DC3">
+        <v>0.704143022973968</v>
+      </c>
+      <c r="DD3">
+        <v>0.8336998061442538</v>
+      </c>
+      <c r="DE3">
+        <v>0.9006177321838769</v>
+      </c>
+      <c r="DF3">
+        <v>0.9012037561225611</v>
+      </c>
+      <c r="DG3">
+        <v>0.9469413802889024</v>
+      </c>
+      <c r="DH3">
+        <v>0.9513083120284914</v>
+      </c>
+      <c r="DI3">
+        <v>0.9515453096828627</v>
+      </c>
+      <c r="DJ3">
+        <v>0.9530725454934859</v>
+      </c>
+      <c r="DK3">
+        <v>0.9618558811499227</v>
+      </c>
+      <c r="DL3">
+        <v>0.9629893134718407</v>
+      </c>
+      <c r="DM3">
+        <v>0.9653624928500126</v>
+      </c>
+      <c r="DN3">
+        <v>0.9705423012339972</v>
+      </c>
+      <c r="DO3">
+        <v>0.9811835558241911</v>
+      </c>
+      <c r="DP3">
+        <v>0.9914767905092673</v>
+      </c>
+      <c r="DQ3">
         <v>1</v>
       </c>
-      <c r="AL2">
+      <c r="DR3">
         <v>1</v>
       </c>
-      <c r="AM2">
-        <v>1</v>
-      </c>
-      <c r="AN2">
-        <v>1</v>
-      </c>
-      <c r="AO2">
-        <v>1</v>
-      </c>
-      <c r="AP2">
-        <v>1</v>
-      </c>
-      <c r="AQ2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:43">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.01185168908356812</v>
-      </c>
-      <c r="G3">
-        <v>0.03826363685823099</v>
-      </c>
-      <c r="H3">
-        <v>0.0540680310664174</v>
-      </c>
-      <c r="I3">
-        <v>0.08065593331565363</v>
-      </c>
-      <c r="J3">
-        <v>0.1288656926699648</v>
-      </c>
-      <c r="K3">
-        <v>0.1308255859859643</v>
-      </c>
-      <c r="L3">
-        <v>0.1473430868835985</v>
-      </c>
-      <c r="M3">
-        <v>0.1485324164097271</v>
-      </c>
-      <c r="N3">
-        <v>0.1556956635300368</v>
-      </c>
-      <c r="O3">
-        <v>0.2565768018691441</v>
-      </c>
-      <c r="P3">
-        <v>0.3065970527770535</v>
-      </c>
-      <c r="Q3">
-        <v>0.3259768619369732</v>
-      </c>
-      <c r="R3">
-        <v>0.4426399041484374</v>
-      </c>
-      <c r="S3">
-        <v>0.5277956180039933</v>
-      </c>
-      <c r="T3">
-        <v>0.5612144689594498</v>
-      </c>
-      <c r="U3">
-        <v>0.5641512180856624</v>
-      </c>
-      <c r="V3">
-        <v>0.5794487751547152</v>
-      </c>
-      <c r="W3">
-        <v>0.6448642012887075</v>
-      </c>
-      <c r="X3">
-        <v>0.7087724653251578</v>
-      </c>
-      <c r="Y3">
-        <v>0.7550313980691107</v>
-      </c>
-      <c r="Z3">
-        <v>0.7888770504005278</v>
-      </c>
-      <c r="AA3">
-        <v>0.8071101202526303</v>
-      </c>
-      <c r="AB3">
-        <v>0.8071135115277539</v>
-      </c>
-      <c r="AC3">
-        <v>0.8326150976133085</v>
-      </c>
-      <c r="AD3">
-        <v>0.8888490154768324</v>
-      </c>
-      <c r="AE3">
-        <v>0.9284424355389646</v>
-      </c>
-      <c r="AF3">
-        <v>0.9562910054464965</v>
-      </c>
-      <c r="AG3">
-        <v>0.9803039043977918</v>
-      </c>
-      <c r="AH3">
-        <v>0.9925998620309953</v>
-      </c>
-      <c r="AI3">
-        <v>0.9978324178092997</v>
-      </c>
-      <c r="AJ3">
-        <v>0.9999882814409107</v>
-      </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-      <c r="AQ3">
-        <v>1</v>
+    <row r="4" spans="1:122">
+      <c r="A4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0.02694741265345391</v>
+      </c>
+      <c r="CK4">
+        <v>0.03200317124562845</v>
+      </c>
+      <c r="CL4">
+        <v>0.06641133350928358</v>
+      </c>
+      <c r="CM4">
+        <v>0.07766288138696267</v>
+      </c>
+      <c r="CN4">
+        <v>0.07986686322989756</v>
+      </c>
+      <c r="CO4">
+        <v>0.2111641111527206</v>
+      </c>
+      <c r="CP4">
+        <v>0.2491557895641038</v>
+      </c>
+      <c r="CQ4">
+        <v>0.4935116673789771</v>
+      </c>
+      <c r="CR4">
+        <v>0.4997886081351341</v>
+      </c>
+      <c r="CS4">
+        <v>0.5254243535937313</v>
+      </c>
+      <c r="CT4">
+        <v>0.5741161391377338</v>
+      </c>
+      <c r="CU4">
+        <v>0.5874791360600587</v>
+      </c>
+      <c r="CV4">
+        <v>0.6969946532538399</v>
+      </c>
+      <c r="CW4">
+        <v>0.721213165312366</v>
+      </c>
+      <c r="CX4">
+        <v>0.7443694173259652</v>
+      </c>
+      <c r="CY4">
+        <v>0.7519338080069569</v>
+      </c>
+      <c r="CZ4">
+        <v>0.8096245386427073</v>
+      </c>
+      <c r="DA4">
+        <v>0.8224482103619687</v>
+      </c>
+      <c r="DB4">
+        <v>0.874212208756048</v>
+      </c>
+      <c r="DC4">
+        <v>0.8863680730911317</v>
+      </c>
+      <c r="DD4">
+        <v>0.8899570522106324</v>
+      </c>
+      <c r="DE4">
+        <v>0.929153325274288</v>
+      </c>
+      <c r="DF4">
+        <v>0.93146808790304</v>
+      </c>
+      <c r="DG4">
+        <v>0.9401816079463535</v>
+      </c>
+      <c r="DH4">
+        <v>0.9583932647213047</v>
+      </c>
+      <c r="DI4">
+        <v>0.9627384440086677</v>
+      </c>
+      <c r="DJ4">
+        <v>0.977575887442569</v>
+      </c>
+      <c r="DK4">
+        <v>0.9776093997092327</v>
+      </c>
+      <c r="DL4">
+        <v>0.9821681872076758</v>
+      </c>
+      <c r="DM4">
+        <v>0.9959662939614957</v>
+      </c>
+      <c r="DN4">
+        <v>0.9997707681601576</v>
+      </c>
+      <c r="DO4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DP4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DQ4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DR4">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.0225182123943591</v>
-      </c>
-      <c r="G4">
-        <v>0.0479963391405611</v>
-      </c>
-      <c r="H4">
-        <v>0.0765317730808068</v>
-      </c>
-      <c r="I4">
-        <v>0.1061420242025499</v>
-      </c>
-      <c r="J4">
-        <v>0.163455542434264</v>
-      </c>
-      <c r="K4">
-        <v>0.163477843021241</v>
-      </c>
-      <c r="L4">
-        <v>0.1793275922289119</v>
-      </c>
-      <c r="M4">
-        <v>0.1799703957093369</v>
-      </c>
-      <c r="N4">
-        <v>0.1823844240744715</v>
-      </c>
-      <c r="O4">
-        <v>0.2621364097568079</v>
-      </c>
-      <c r="P4">
-        <v>0.3368942100771552</v>
-      </c>
-      <c r="Q4">
-        <v>0.3418611223579845</v>
-      </c>
-      <c r="R4">
-        <v>0.4510511037707597</v>
-      </c>
-      <c r="S4">
-        <v>0.5480087632013335</v>
-      </c>
-      <c r="T4">
-        <v>0.5746004134343272</v>
-      </c>
-      <c r="U4">
-        <v>0.57649162727308</v>
-      </c>
-      <c r="V4">
-        <v>0.5819479242513651</v>
-      </c>
-      <c r="W4">
-        <v>0.622754365384707</v>
-      </c>
-      <c r="X4">
-        <v>0.6843429225481481</v>
-      </c>
-      <c r="Y4">
-        <v>0.7447612391377294</v>
-      </c>
-      <c r="Z4">
-        <v>0.7858916729873702</v>
-      </c>
-      <c r="AA4">
-        <v>0.8045161890853524</v>
-      </c>
-      <c r="AB4">
-        <v>0.8049288689681371</v>
-      </c>
-      <c r="AC4">
-        <v>0.8202467017996036</v>
-      </c>
-      <c r="AD4">
-        <v>0.8731127842436825</v>
-      </c>
-      <c r="AE4">
-        <v>0.9206255856111376</v>
-      </c>
-      <c r="AF4">
-        <v>0.9516027940875269</v>
-      </c>
-      <c r="AG4">
-        <v>0.9759836074340683</v>
-      </c>
-      <c r="AH4">
-        <v>0.9913463809246991</v>
-      </c>
-      <c r="AI4">
-        <v>0.998307607204261</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-      <c r="AN4">
-        <v>1</v>
-      </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
-      <c r="AQ4">
-        <v>1</v>
+    <row r="5" spans="1:122">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0.07738279086047072</v>
+      </c>
+      <c r="CM5">
+        <v>0.07738279086047072</v>
+      </c>
+      <c r="CN5">
+        <v>0.2224715017139646</v>
+      </c>
+      <c r="CO5">
+        <v>0.2474280743340974</v>
+      </c>
+      <c r="CP5">
+        <v>0.2482278120724471</v>
+      </c>
+      <c r="CQ5">
+        <v>0.2482278120724471</v>
+      </c>
+      <c r="CR5">
+        <v>0.3285725429985185</v>
+      </c>
+      <c r="CS5">
+        <v>0.3859510974821942</v>
+      </c>
+      <c r="CT5">
+        <v>0.3970562626308746</v>
+      </c>
+      <c r="CU5">
+        <v>0.4157725924098451</v>
+      </c>
+      <c r="CV5">
+        <v>0.4159149743130647</v>
+      </c>
+      <c r="CW5">
+        <v>0.4397494521167813</v>
+      </c>
+      <c r="CX5">
+        <v>0.4809683966829871</v>
+      </c>
+      <c r="CY5">
+        <v>0.4814156557379182</v>
+      </c>
+      <c r="CZ5">
+        <v>0.4865409606219786</v>
+      </c>
+      <c r="DA5">
+        <v>0.6252296937420749</v>
+      </c>
+      <c r="DB5">
+        <v>0.7086458599859902</v>
+      </c>
+      <c r="DC5">
+        <v>0.7219479940183205</v>
+      </c>
+      <c r="DD5">
+        <v>0.7778393938130533</v>
+      </c>
+      <c r="DE5">
+        <v>0.8518831840840639</v>
+      </c>
+      <c r="DF5">
+        <v>0.8558240928101298</v>
+      </c>
+      <c r="DG5">
+        <v>0.8993247684913046</v>
+      </c>
+      <c r="DH5">
+        <v>0.9126527306150534</v>
+      </c>
+      <c r="DI5">
+        <v>0.9161591308233915</v>
+      </c>
+      <c r="DJ5">
+        <v>0.9279363884831685</v>
+      </c>
+      <c r="DK5">
+        <v>0.9282347231711631</v>
+      </c>
+      <c r="DL5">
+        <v>0.9382268091807581</v>
+      </c>
+      <c r="DM5">
+        <v>0.9482000917121921</v>
+      </c>
+      <c r="DN5">
+        <v>0.9501730977103967</v>
+      </c>
+      <c r="DO5">
+        <v>0.9788231723428308</v>
+      </c>
+      <c r="DP5">
+        <v>0.9991439762281192</v>
+      </c>
+      <c r="DQ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DR5">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.002003644192470601</v>
-      </c>
-      <c r="M5">
-        <v>0.008529465446045846</v>
-      </c>
-      <c r="N5">
-        <v>0.01303301618513975</v>
-      </c>
-      <c r="O5">
-        <v>0.0673627722653416</v>
-      </c>
-      <c r="P5">
-        <v>0.07844479203092702</v>
-      </c>
-      <c r="Q5">
-        <v>0.1384598086235195</v>
-      </c>
-      <c r="R5">
-        <v>0.1936580859704863</v>
-      </c>
-      <c r="S5">
-        <v>0.1992434029531526</v>
-      </c>
-      <c r="T5">
-        <v>0.2193616153733626</v>
-      </c>
-      <c r="U5">
-        <v>0.2194378133277286</v>
-      </c>
-      <c r="V5">
-        <v>0.2442463531442163</v>
-      </c>
-      <c r="W5">
-        <v>0.3568154206330563</v>
-      </c>
-      <c r="X5">
-        <v>0.3866272477917724</v>
-      </c>
-      <c r="Y5">
-        <v>0.429971431199026</v>
-      </c>
-      <c r="Z5">
-        <v>0.5534123349694985</v>
-      </c>
-      <c r="AA5">
-        <v>0.6168401939569038</v>
-      </c>
-      <c r="AB5">
-        <v>0.6262364673985544</v>
-      </c>
-      <c r="AC5">
-        <v>0.6267955335049352</v>
-      </c>
-      <c r="AD5">
-        <v>0.6474116893262959</v>
-      </c>
-      <c r="AE5">
-        <v>0.7014127272864172</v>
-      </c>
-      <c r="AF5">
-        <v>0.7603763979896472</v>
-      </c>
-      <c r="AG5">
-        <v>0.8003088025857082</v>
-      </c>
-      <c r="AH5">
-        <v>0.8218321896472102</v>
-      </c>
-      <c r="AI5">
-        <v>0.8309493990499696</v>
-      </c>
-      <c r="AJ5">
-        <v>0.8313362227996148</v>
-      </c>
-      <c r="AK5">
-        <v>0.8592481673707896</v>
-      </c>
-      <c r="AL5">
-        <v>0.9119611757639913</v>
-      </c>
-      <c r="AM5">
-        <v>0.9454473807160276</v>
-      </c>
-      <c r="AN5">
-        <v>0.9699783289329444</v>
-      </c>
-      <c r="AO5">
-        <v>0.9881062411192062</v>
-      </c>
-      <c r="AP5">
-        <v>0.9965717382616038</v>
-      </c>
-      <c r="AQ5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:122">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2054,123 +4895,360 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001046207537985449</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.005806097025847921</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04187157228544176</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.05763769331923185</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.09912224471479281</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1157399192159856</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1846238252347384</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1883510570934079</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2135198659861308</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2146892182596872</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2167316079985468</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2880196860518185</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.3401808090887247</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.3429680400207554</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.4340723568287095</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.5149942004368361</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.5472899494028577</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.5550162786207928</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.5591221158276773</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.610774259970849</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.6791822138084994</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.7372191056004561</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.7776851879419212</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.796532968567828</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.7983968089960983</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.8099512470810551</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.8615173817287852</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.9157824317688811</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.9503294933101306</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.9773064466432052</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.9940872985569876</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0.1158415151944472</v>
+      </c>
+      <c r="CN6">
+        <v>0.1907274600423476</v>
+      </c>
+      <c r="CO6">
+        <v>0.2422610207891644</v>
+      </c>
+      <c r="CP6">
+        <v>0.2551471013632525</v>
+      </c>
+      <c r="CQ6">
+        <v>0.2749680520008655</v>
+      </c>
+      <c r="CR6">
+        <v>0.2829394453197656</v>
+      </c>
+      <c r="CS6">
+        <v>0.3779109766929457</v>
+      </c>
+      <c r="CT6">
+        <v>0.5645969700681249</v>
+      </c>
+      <c r="CU6">
+        <v>0.5645969700681249</v>
+      </c>
+      <c r="CV6">
+        <v>0.5737114388963668</v>
+      </c>
+      <c r="CW6">
+        <v>0.5807690607390494</v>
+      </c>
+      <c r="CX6">
+        <v>0.6289561051673215</v>
+      </c>
+      <c r="CY6">
+        <v>0.6319291195439748</v>
+      </c>
+      <c r="CZ6">
+        <v>0.6329515353779395</v>
+      </c>
+      <c r="DA6">
+        <v>0.6760579664515306</v>
+      </c>
+      <c r="DB6">
+        <v>0.7125449614142695</v>
+      </c>
+      <c r="DC6">
+        <v>0.752967746428281</v>
+      </c>
+      <c r="DD6">
+        <v>0.7545367671342919</v>
+      </c>
+      <c r="DE6">
+        <v>0.8870189968925786</v>
+      </c>
+      <c r="DF6">
+        <v>0.8870257704261262</v>
+      </c>
+      <c r="DG6">
+        <v>0.8880177558557195</v>
+      </c>
+      <c r="DH6">
+        <v>0.9416379711946616</v>
+      </c>
+      <c r="DI6">
+        <v>0.9457547860799795</v>
+      </c>
+      <c r="DJ6">
+        <v>0.9486429362975511</v>
+      </c>
+      <c r="DK6">
+        <v>0.9613536850103229</v>
+      </c>
+      <c r="DL6">
+        <v>0.9646202560303349</v>
+      </c>
+      <c r="DM6">
+        <v>0.9740196542698505</v>
+      </c>
+      <c r="DN6">
+        <v>0.976277379897075</v>
+      </c>
+      <c r="DO6">
+        <v>0.9828229318596468</v>
+      </c>
+      <c r="DP6">
+        <v>0.9917773335703783</v>
+      </c>
+      <c r="DQ6">
+        <v>0.9945661209416943</v>
+      </c>
+      <c r="DR6">
         <v>1</v>
       </c>
     </row>
@@ -2189,302 +5267,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>0.01047630253450347</v>
+        <v>0.1207839054759663</v>
       </c>
       <c r="F2">
-        <v>0.5100579749777613</v>
+        <v>0.6800349896019001</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L2">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.01185168908356812</v>
+        <v>0.1140137719192763</v>
       </c>
       <c r="F3">
-        <v>0.5277956180039933</v>
+        <v>0.5325272884412064</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L3">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>0.0225182123943591</v>
+        <v>0.2111641111527206</v>
       </c>
       <c r="F4">
-        <v>0.5480087632013335</v>
+        <v>0.5254243535937313</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L4">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
+        <v>91</v>
+      </c>
+      <c r="D5">
+        <v>104</v>
+      </c>
+      <c r="E5">
+        <v>0.2224715017139646</v>
+      </c>
+      <c r="F5">
+        <v>0.6252296937420749</v>
+      </c>
+      <c r="G5">
         <v>13</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>0.01303301618513975</v>
-      </c>
-      <c r="F5">
-        <v>0.5534123349694985</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L5">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E6">
-        <v>0.04187157228544176</v>
+        <v>0.1158415151944472</v>
       </c>
       <c r="F6">
-        <v>0.5149942004368361</v>
+        <v>0.5645969700681249</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L6">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2502,302 +5565,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>0.01047630253450347</v>
+        <v>0.1207839054759663</v>
       </c>
       <c r="F2">
-        <v>0.7222514298056476</v>
+        <v>0.7086808230299956</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L2">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.01185168908356812</v>
+        <v>0.1140137719192763</v>
       </c>
       <c r="F3">
-        <v>0.7087724653251578</v>
+        <v>0.704143022973968</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L3">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.0225182123943591</v>
+        <v>0.2111641111527206</v>
       </c>
       <c r="F4">
-        <v>0.7447612391377294</v>
+        <v>0.721213165312366</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L4">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E5">
-        <v>0.01303301618513975</v>
+        <v>0.2224715017139646</v>
       </c>
       <c r="F5">
-        <v>0.7014127272864172</v>
+        <v>0.7086458599859902</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L5">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>0.04187157228544176</v>
+        <v>0.1158415151944472</v>
       </c>
       <c r="F6">
-        <v>0.7372191056004561</v>
+        <v>0.7125449614142695</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L6">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2815,302 +5863,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>0.01047630253450347</v>
+        <v>0.1207839054759663</v>
       </c>
       <c r="F2">
-        <v>0.8114666760822521</v>
+        <v>0.841751990040158</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L2">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.01185168908356812</v>
+        <v>0.1140137719192763</v>
       </c>
       <c r="F3">
-        <v>0.8071101202526303</v>
+        <v>0.8336998061442538</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L3">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="E4">
-        <v>0.0225182123943591</v>
+        <v>0.2111641111527206</v>
       </c>
       <c r="F4">
-        <v>0.8045161890853524</v>
+        <v>0.8096245386427073</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L4">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.01303301618513975</v>
+        <v>0.2224715017139646</v>
       </c>
       <c r="F5">
-        <v>0.8003088025857082</v>
+        <v>0.8518831840840639</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L5">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>0.04187157228544176</v>
+        <v>0.1158415151944472</v>
       </c>
       <c r="F6">
-        <v>0.8099512470810551</v>
+        <v>0.8870189968925786</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L6">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3128,302 +6161,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>0.01047630253450347</v>
+        <v>0.1207839054759663</v>
       </c>
       <c r="F2">
-        <v>0.9157534776085793</v>
+        <v>0.9844761794272029</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L2">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>0.01185168908356812</v>
+        <v>0.1140137719192763</v>
       </c>
       <c r="F3">
-        <v>0.9284424355389646</v>
+        <v>0.9006177321838769</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L3">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="E4">
-        <v>0.0225182123943591</v>
+        <v>0.2111641111527206</v>
       </c>
       <c r="F4">
-        <v>0.9206255856111376</v>
+        <v>0.929153325274288</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L4">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="E5">
-        <v>0.01303301618513975</v>
+        <v>0.2224715017139646</v>
       </c>
       <c r="F5">
-        <v>0.9119611757639913</v>
+        <v>0.9126527306150534</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L5">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="E6">
-        <v>0.04187157228544176</v>
+        <v>0.1158415151944472</v>
       </c>
       <c r="F6">
-        <v>0.9157824317688811</v>
+        <v>0.9416379711946616</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L6">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
